--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cj\Documents\GitHub\Encoder-for-DengVaxia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B90FE2F-0C00-4756-ACE6-C9804941BD1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C6266A-72EC-4A5F-8C03-D52BA9075562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{663CCD6E-1B7D-42CC-8005-1E528A9262FD}"/>
+    <workbookView xWindow="17970" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{663CCD6E-1B7D-42CC-8005-1E528A9262FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>Rel to Household</t>
   </si>
@@ -127,6 +128,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Caleb</t>
   </si>
 </sst>
 </file>
@@ -493,7 +497,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A29"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +634,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -767,4 +771,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9063CEE1-C4AC-40DF-8FC9-9C8E1ECB7E87}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cj\Documents\GitHub\Encoder-for-DengVaxia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C6266A-72EC-4A5F-8C03-D52BA9075562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB33CCE6-405D-4D7E-BC4C-B96A6799C777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17970" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{663CCD6E-1B7D-42CC-8005-1E528A9262FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{663CCD6E-1B7D-42CC-8005-1E528A9262FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>Rel to Household</t>
   </si>
@@ -127,10 +127,340 @@
     <t>Metro Manila</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>Caleb</t>
+  </si>
+  <si>
+    <t>Date Interviewed</t>
+  </si>
+  <si>
+    <t>Relationship to Vaccinee</t>
+  </si>
+  <si>
+    <t>Test Date 2</t>
+  </si>
+  <si>
+    <t>Test Date 3</t>
+  </si>
+  <si>
+    <t>Test Date 4</t>
+  </si>
+  <si>
+    <t>Test Date 5</t>
+  </si>
+  <si>
+    <t>Test Date 6</t>
+  </si>
+  <si>
+    <t>Test Date 7</t>
+  </si>
+  <si>
+    <t>Test Date 8</t>
+  </si>
+  <si>
+    <t>Test Date 9</t>
+  </si>
+  <si>
+    <t>Test Date 10</t>
+  </si>
+  <si>
+    <t>Test Date 11</t>
+  </si>
+  <si>
+    <t>Test Date 12</t>
+  </si>
+  <si>
+    <t>Test Date 13</t>
+  </si>
+  <si>
+    <t>Test Date 14</t>
+  </si>
+  <si>
+    <t>Test Date 15</t>
+  </si>
+  <si>
+    <t>Test Date 16</t>
+  </si>
+  <si>
+    <t>Test Date 17</t>
+  </si>
+  <si>
+    <t>Test Date 18</t>
+  </si>
+  <si>
+    <t>Test Date 19</t>
+  </si>
+  <si>
+    <t>Test Date 20</t>
+  </si>
+  <si>
+    <t>Test Date 21</t>
+  </si>
+  <si>
+    <t>Test Date 22</t>
+  </si>
+  <si>
+    <t>Test Date 23</t>
+  </si>
+  <si>
+    <t>Test Date 24</t>
+  </si>
+  <si>
+    <t>Test Date 25</t>
+  </si>
+  <si>
+    <t>Test Date 26</t>
+  </si>
+  <si>
+    <t>Test Date 27</t>
+  </si>
+  <si>
+    <t>Test Date 28</t>
+  </si>
+  <si>
+    <t>Test Relation 1</t>
+  </si>
+  <si>
+    <t>Test Date 1</t>
+  </si>
+  <si>
+    <t>Test Id 2</t>
+  </si>
+  <si>
+    <t>Test Name 3</t>
+  </si>
+  <si>
+    <t>Test Id 3</t>
+  </si>
+  <si>
+    <t>Test Id 4</t>
+  </si>
+  <si>
+    <t>Test Id 5</t>
+  </si>
+  <si>
+    <t>Test Id 6</t>
+  </si>
+  <si>
+    <t>Test Id 7</t>
+  </si>
+  <si>
+    <t>Test Id 8</t>
+  </si>
+  <si>
+    <t>Test Id 9</t>
+  </si>
+  <si>
+    <t>Test Id 10</t>
+  </si>
+  <si>
+    <t>Test Id 11</t>
+  </si>
+  <si>
+    <t>Test Id 12</t>
+  </si>
+  <si>
+    <t>Test Id 13</t>
+  </si>
+  <si>
+    <t>Test Id 14</t>
+  </si>
+  <si>
+    <t>Test Id 15</t>
+  </si>
+  <si>
+    <t>Test Id 16</t>
+  </si>
+  <si>
+    <t>Test Id 17</t>
+  </si>
+  <si>
+    <t>Test Id 18</t>
+  </si>
+  <si>
+    <t>Test Id 19</t>
+  </si>
+  <si>
+    <t>Test Id 20</t>
+  </si>
+  <si>
+    <t>Test Id 21</t>
+  </si>
+  <si>
+    <t>Test Id 22</t>
+  </si>
+  <si>
+    <t>Test Id 23</t>
+  </si>
+  <si>
+    <t>Test Id 24</t>
+  </si>
+  <si>
+    <t>Test Id 25</t>
+  </si>
+  <si>
+    <t>Test Id 26</t>
+  </si>
+  <si>
+    <t>Test Id 27</t>
+  </si>
+  <si>
+    <t>Test Id 28</t>
+  </si>
+  <si>
+    <t>Test Relation 2</t>
+  </si>
+  <si>
+    <t>Test Relation 3</t>
+  </si>
+  <si>
+    <t>Test Relation 4</t>
+  </si>
+  <si>
+    <t>Test Relation 5</t>
+  </si>
+  <si>
+    <t>Test Relation 6</t>
+  </si>
+  <si>
+    <t>Test Relation 7</t>
+  </si>
+  <si>
+    <t>Test Relation 8</t>
+  </si>
+  <si>
+    <t>Test Relation 9</t>
+  </si>
+  <si>
+    <t>Test Relation 10</t>
+  </si>
+  <si>
+    <t>Test Relation 11</t>
+  </si>
+  <si>
+    <t>Test Relation 12</t>
+  </si>
+  <si>
+    <t>Test Relation 13</t>
+  </si>
+  <si>
+    <t>Test Relation 14</t>
+  </si>
+  <si>
+    <t>Test Relation 15</t>
+  </si>
+  <si>
+    <t>Test Relation 16</t>
+  </si>
+  <si>
+    <t>Test Relation 17</t>
+  </si>
+  <si>
+    <t>Test Relation 18</t>
+  </si>
+  <si>
+    <t>Test Relation 19</t>
+  </si>
+  <si>
+    <t>Test Relation 20</t>
+  </si>
+  <si>
+    <t>Test Relation 21</t>
+  </si>
+  <si>
+    <t>Test Relation 22</t>
+  </si>
+  <si>
+    <t>Test Relation 23</t>
+  </si>
+  <si>
+    <t>Test Relation 24</t>
+  </si>
+  <si>
+    <t>Test Relation 25</t>
+  </si>
+  <si>
+    <t>Test Relation 26</t>
+  </si>
+  <si>
+    <t>Test Relation 27</t>
+  </si>
+  <si>
+    <t>Test Relation 28</t>
+  </si>
+  <si>
+    <t>Test Name 4</t>
+  </si>
+  <si>
+    <t>Test Name 5</t>
+  </si>
+  <si>
+    <t>Test Name 6</t>
+  </si>
+  <si>
+    <t>Test Name 7</t>
+  </si>
+  <si>
+    <t>Test Name 8</t>
+  </si>
+  <si>
+    <t>Test Name 9</t>
+  </si>
+  <si>
+    <t>Test Name 10</t>
+  </si>
+  <si>
+    <t>Test Name 11</t>
+  </si>
+  <si>
+    <t>Test Name 12</t>
+  </si>
+  <si>
+    <t>Test Name 13</t>
+  </si>
+  <si>
+    <t>Test Name 14</t>
+  </si>
+  <si>
+    <t>Test Name 15</t>
+  </si>
+  <si>
+    <t>Test Name 16</t>
+  </si>
+  <si>
+    <t>Test Name 17</t>
+  </si>
+  <si>
+    <t>Test Name 18</t>
+  </si>
+  <si>
+    <t>Test Name 19</t>
+  </si>
+  <si>
+    <t>Test Name 20</t>
+  </si>
+  <si>
+    <t>Test Name 21</t>
+  </si>
+  <si>
+    <t>Test Name 22</t>
+  </si>
+  <si>
+    <t>Test Name 23</t>
+  </si>
+  <si>
+    <t>Test Name 24</t>
+  </si>
+  <si>
+    <t>Test Name 25</t>
+  </si>
+  <si>
+    <t>Test Name 26</t>
+  </si>
+  <si>
+    <t>Test Name 27</t>
+  </si>
+  <si>
+    <t>Test Name 28</t>
   </si>
 </sst>
 </file>
@@ -140,7 +470,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +483,12 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -494,17 +830,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B627484D-4695-48CE-81CA-415A487E5BB4}">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
@@ -516,258 +852,516 @@
     <col min="12" max="12" width="49" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="I2" s="1">
         <v>92357661499</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>107</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="2">
+      <c r="R2" s="2">
         <v>39691</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>19</v>
       </c>
-      <c r="Q2">
+      <c r="T2">
         <v>10</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="X2" s="1"/>
+      <c r="AG2" s="2"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
